--- a/GCBASIC/Tracker/Tracker.xlsx
+++ b/GCBASIC/Tracker/Tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Status</t>
   </si>
@@ -117,6 +117,21 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>This  does not work create correct code and does not error in compiling
+ if AppCountDown &lt; MinCountDown Then
+ Triac = 0 Else
+ Triac = 1
+ end if
+         See https://sourceforge.net/p/gcbasic/discussion/596084/thread/54c2646f/#1e20</t>
+  </si>
+  <si>
+    <t>Bug in AMTEL compiler output.
+if (test1&lt;&gt; 0x55)|(test2&lt;&gt; 0xAA) THEN
+ Goto SetMeasure
+ END IF
+          See https://sourceforge.net/p/gcbasic/discussion/596084/thread/54c2646f/#1e20</t>
   </si>
 </sst>
 </file>
@@ -473,10 +488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,6 +652,28 @@
       </c>
       <c r="D13" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/GCBASIC/Tracker/Tracker.xlsx
+++ b/GCBASIC/Tracker/Tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Status</t>
   </si>
@@ -132,6 +132,10 @@
  Goto SetMeasure
  END IF
           See https://sourceforge.net/p/gcbasic/discussion/596084/thread/54c2646f/#1e20</t>
+  </si>
+  <si>
+    <t>New device with an ADC error.  Needs ADCON2 = 15 ' Set Negative Reference Setting to ADNREF in ADCON1 
+See https://sourceforge.net/p/gcbasic/discussion/629990/thread/9b69d693/#e018</t>
   </si>
 </sst>
 </file>
@@ -488,10 +492,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,6 +678,17 @@
       </c>
       <c r="D15" s="2" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/GCBASIC/Tracker/Tracker.xlsx
+++ b/GCBASIC/Tracker/Tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Status</t>
   </si>
@@ -136,6 +136,13 @@
   <si>
     <t>New device with an ADC error.  Needs ADCON2 = 15 ' Set Negative Reference Setting to ADNREF in ADCON1 
 See https://sourceforge.net/p/gcbasic/discussion/629990/thread/9b69d693/#e018</t>
+  </si>
+  <si>
+    <t>AVR compiles when it should not.  See https://sourceforge.net/p/gcbasic/discussion/596084/thread/e58866dc/#5e0f</t>
+  </si>
+  <si>
+    <t>HSERPRINT not handling LONGs correctly.
+Updated USART.H to handle LONGs correctly.</t>
   </si>
 </sst>
 </file>
@@ -492,10 +499,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,6 +696,28 @@
       </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/GCBASIC/Tracker/Tracker.xlsx
+++ b/GCBASIC/Tracker/Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="12240" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,11 +138,12 @@
 See https://sourceforge.net/p/gcbasic/discussion/629990/thread/9b69d693/#e018</t>
   </si>
   <si>
-    <t>AVR compiles when it should not.  See https://sourceforge.net/p/gcbasic/discussion/596084/thread/e58866dc/#5e0f</t>
-  </si>
-  <si>
     <t>HSERPRINT not handling LONGs correctly.
 Updated USART.H to handle LONGs correctly.</t>
+  </si>
+  <si>
+    <t>AVR compiles when it should not.  See https://sourceforge.net/p/gcbasic/discussion/596084/thread/e58866dc/#5e0f and see
+https://sourceforge.net/p/gcbasic/discussion/596084/thread/44babfea/#3a0b</t>
   </si>
 </sst>
 </file>
@@ -501,8 +502,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,18 +707,18 @@
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/GCBASIC/Tracker/Tracker.xlsx
+++ b/GCBASIC/Tracker/Tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Status</t>
   </si>
@@ -144,6 +144,10 @@
   <si>
     <t>AVR compiles when it should not.  See https://sourceforge.net/p/gcbasic/discussion/596084/thread/e58866dc/#5e0f and see
 https://sourceforge.net/p/gcbasic/discussion/596084/thread/44babfea/#3a0b</t>
+  </si>
+  <si>
+    <t>AVR String copy error.
+See https://sourceforge.net/p/gcbasic/discussion/596084/thread/55a04367/#063f</t>
   </si>
 </sst>
 </file>
@@ -500,10 +504,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,6 +723,17 @@
       </c>
       <c r="D18" s="2" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/GCBASIC/Tracker/Tracker.xlsx
+++ b/GCBASIC/Tracker/Tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Status</t>
   </si>
@@ -148,6 +148,10 @@
   <si>
     <t>AVR String copy error.
 See https://sourceforge.net/p/gcbasic/discussion/596084/thread/55a04367/#063f</t>
+  </si>
+  <si>
+    <t>Store WORDS in EEPROM tables.
+See https://sourceforge.net/p/gcbasic/discussion/629990/thread/374e7d95/#ec4b</t>
   </si>
 </sst>
 </file>
@@ -504,10 +508,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,6 +738,17 @@
       </c>
       <c r="D19" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/GCBASIC/Tracker/Tracker.xlsx
+++ b/GCBASIC/Tracker/Tracker.xlsx
@@ -146,12 +146,12 @@
 https://sourceforge.net/p/gcbasic/discussion/596084/thread/44babfea/#3a0b</t>
   </si>
   <si>
-    <t>AVR String copy error.
-See https://sourceforge.net/p/gcbasic/discussion/596084/thread/55a04367/#063f</t>
-  </si>
-  <si>
     <t>Store WORDS in EEPROM tables.
 See https://sourceforge.net/p/gcbasic/discussion/629990/thread/374e7d95/#ec4b</t>
+  </si>
+  <si>
+    <t>AVR String copy error.  Apllies to AVR Mid$, Left$ and Right$
+See https://sourceforge.net/p/gcbasic/discussion/596084/thread/55a04367/#063f</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +737,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/GCBASIC/Tracker/Tracker.xlsx
+++ b/GCBASIC/Tracker/Tracker.xlsx
@@ -146,12 +146,12 @@
 https://sourceforge.net/p/gcbasic/discussion/596084/thread/44babfea/#3a0b</t>
   </si>
   <si>
-    <t>Store WORDS in EEPROM tables.
-See https://sourceforge.net/p/gcbasic/discussion/629990/thread/374e7d95/#ec4b</t>
-  </si>
-  <si>
     <t>AVR String copy error.  Apllies to AVR Mid$, Left$ and Right$
 See https://sourceforge.net/p/gcbasic/discussion/596084/thread/55a04367/#063f</t>
+  </si>
+  <si>
+    <t>Storing WORDS in EEPROM tables fails but RAM works
+See https://sourceforge.net/p/gcbasic/discussion/629990/thread/374e7d95/#ec4b</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +737,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/GCBASIC/Tracker/Tracker.xlsx
+++ b/GCBASIC/Tracker/Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="12240" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="12240" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Status</t>
   </si>
@@ -152,6 +152,9 @@
   <si>
     <t>Storing WORDS in EEPROM tables fails but RAM works
 See https://sourceforge.net/p/gcbasic/discussion/629990/thread/374e7d95/#ec4b</t>
+  </si>
+  <si>
+    <t>Change rs232 init to simplify config.</t>
   </si>
 </sst>
 </file>
@@ -508,10 +511,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,6 +752,17 @@
       </c>
       <c r="D20" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/GCBASIC/Tracker/Tracker.xlsx
+++ b/GCBASIC/Tracker/Tracker.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$22</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Status</t>
   </si>
@@ -105,11 +105,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Enhancement Request.  USB Support.
-          https://sourceforge.net/p/gcbasic/discussion/579125/thread/559c7723/#e307
-</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
@@ -155,6 +150,30 @@
   </si>
   <si>
     <t>Change rs232 init to simplify config.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array allocation in ram and a related crash.
+See addressed https://sourceforge.net/p/gcbasic/discussion/596084/thread/f4b66340/#618d.  </t>
+  </si>
+  <si>
+    <t>No fault found</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>The limit on array size varies a bit, on 12F/16F it's 80 bytes, but on an AVR or an 18F there isn't a limit other than free RAMAlloction Fixed: Every time a fixed element of an array is accessed, the compiler creates an alias variable
+And then uses it like so:
+;OWCRC(253) = 137
+movlw 137
+movwf SYSOWCRC_253,BANKED
+The array that stores aliases was 200 elements, and was getting filled up - I increased the size to 10000 elements, which should be more than enough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhancement Request.  USB Support.
+          https://sourceforge.net/p/gcbasic/discussion/579125/thread/559c7723/#e307
+Ensure we keep the no "external crystal required" PIC16f1454/5/9 devices in mind.
+</t>
   </si>
 </sst>
 </file>
@@ -511,10 +530,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,24 +546,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -666,7 +688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -674,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -685,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -696,7 +718,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -707,10 +729,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -718,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -729,7 +751,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -740,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -751,10 +773,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -762,19 +784,37 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D13">
+  <autoFilter ref="A1:D22">
     <filterColumn colId="1">
       <filters>
         <filter val="OPEN"/>
+        <filter val="Partial"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="D22" r:id="rId1" location="618d" display="618d"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/GCBASIC/Tracker/Tracker.xlsx
+++ b/GCBASIC/Tracker/Tracker.xlsx
@@ -532,8 +532,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GCBASIC/Tracker/Tracker.xlsx
+++ b/GCBASIC/Tracker/Tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>Status</t>
   </si>
@@ -174,6 +174,12 @@
           https://sourceforge.net/p/gcbasic/discussion/579125/thread/559c7723/#e307
 Ensure we keep the no "external crystal required" PIC16f1454/5/9 devices in mind.
 </t>
+  </si>
+  <si>
+    <t>Bit error when testing in function.</t>
+  </si>
+  <si>
+    <t>See https://sourceforge.net/p/gcbasic/discussion/596084/thread/9112ba98/#2d12/3e8e</t>
   </si>
 </sst>
 </file>
@@ -530,10 +536,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,6 +805,20 @@
       </c>
       <c r="D22" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/GCBASIC/Tracker/Tracker.xlsx
+++ b/GCBASIC/Tracker/Tracker.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$23</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -538,8 +538,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
@@ -699,7 +699,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>32</v>
@@ -710,7 +710,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
@@ -822,7 +822,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D22">
+  <autoFilter ref="A1:D23">
     <filterColumn colId="1">
       <filters>
         <filter val="OPEN"/>
